--- a/data/financial_statements/soci/WBA.xlsx
+++ b/data/financial_statements/soci/WBA.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -137,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -192,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,132 +616,132 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
         <v>33382000000</v>
@@ -751,8 +865,8 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>-0.0153</v>
@@ -876,23 +990,23 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
-        <v>26429000000</v>
+        <v>26924000000</v>
       </c>
       <c r="C4">
-        <v>26039000000</v>
+        <v>26527000000</v>
       </c>
       <c r="D4">
-        <v>26025000000</v>
+        <v>26503000000</v>
       </c>
       <c r="E4">
-        <v>26047000000</v>
+        <v>26571000000</v>
       </c>
       <c r="F4">
-        <v>26326000000</v>
+        <v>26826000000</v>
       </c>
       <c r="G4">
         <v>26759000000</v>
@@ -1001,23 +1115,23 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
-        <v>6953000000</v>
+        <v>6458000000</v>
       </c>
       <c r="C5">
-        <v>6410000000</v>
+        <v>5922000000</v>
       </c>
       <c r="D5">
-        <v>6572000000</v>
+        <v>6094000000</v>
       </c>
       <c r="E5">
-        <v>7709000000</v>
+        <v>7185000000</v>
       </c>
       <c r="F5">
-        <v>7575000000</v>
+        <v>7075000000</v>
       </c>
       <c r="G5">
         <v>7503000000</v>
@@ -1126,8 +1240,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>13158000000</v>
@@ -1251,8 +1365,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>-6152000000</v>
@@ -1376,8 +1490,11 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>110000000</v>
       </c>
       <c r="C8">
         <v>105000000</v>
@@ -1414,8 +1531,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>110000000</v>
@@ -1539,23 +1656,23 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>882000000</v>
+        <v>1193000000</v>
       </c>
       <c r="C10">
-        <v>63000000</v>
+        <v>986000000</v>
       </c>
       <c r="D10">
-        <v>302000000</v>
+        <v>-1000000</v>
       </c>
       <c r="E10">
-        <v>-298000000</v>
+        <v>-39000000</v>
       </c>
       <c r="F10">
-        <v>2531000000</v>
+        <v>2812000000</v>
       </c>
       <c r="G10">
         <v>-2000000</v>
@@ -1664,8 +1781,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>7000000</v>
@@ -1765,20 +1882,20 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>-5270000000</v>
       </c>
       <c r="C12">
-        <v>-759000000</v>
+        <v>-758000000</v>
       </c>
       <c r="D12">
         <v>-18000000</v>
       </c>
       <c r="E12">
-        <v>948000000</v>
+        <v>947000000</v>
       </c>
       <c r="F12">
         <v>3814000000</v>
@@ -1890,8 +2007,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>-1447000000</v>
@@ -2015,8 +2132,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
         <v>-3823000000</v>
@@ -2140,8 +2257,8 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
         <v>-1000000</v>
@@ -2160,8 +2277,8 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>-94000000</v>
@@ -2273,20 +2390,20 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>-3721000000</v>
       </c>
       <c r="C17">
-        <v>-416000000</v>
+        <v>-415000000</v>
       </c>
       <c r="D17">
         <v>289000000</v>
       </c>
       <c r="E17">
-        <v>884000000</v>
+        <v>883000000</v>
       </c>
       <c r="F17">
         <v>3580000000</v>
@@ -2398,8 +2515,11 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>-4.31</v>
       </c>
       <c r="C18">
         <v>-0.48</v>
@@ -2520,8 +2640,11 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>-4.31</v>
       </c>
       <c r="C19">
         <v>-0.48</v>
@@ -2642,23 +2765,23 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>863600000</v>
+        <v>864000000</v>
       </c>
       <c r="C20">
-        <v>864400000</v>
+        <v>865000000</v>
       </c>
       <c r="D20">
         <v>864000000</v>
       </c>
       <c r="E20">
-        <v>863500000</v>
+        <v>864000000</v>
       </c>
       <c r="F20">
-        <v>865800000</v>
+        <v>866000000</v>
       </c>
       <c r="G20">
         <v>864800000</v>
@@ -2767,23 +2890,23 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
-        <v>863600000</v>
+        <v>864000000</v>
       </c>
       <c r="C21">
-        <v>865900000</v>
+        <v>865000000</v>
       </c>
       <c r="D21">
-        <v>865300000</v>
+        <v>865000000</v>
       </c>
       <c r="E21">
-        <v>865200000</v>
+        <v>865000000</v>
       </c>
       <c r="F21">
-        <v>867600000</v>
+        <v>868000000</v>
       </c>
       <c r="G21">
         <v>866400000</v>
@@ -2892,23 +3015,23 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
-        <v>0.2083</v>
+        <v>0.1935</v>
       </c>
       <c r="C22">
-        <v>0.1975</v>
+        <v>0.1825</v>
       </c>
       <c r="D22">
-        <v>0.2016</v>
+        <v>0.1869</v>
       </c>
       <c r="E22">
-        <v>0.2284</v>
+        <v>0.2129</v>
       </c>
       <c r="F22">
-        <v>0.2234</v>
+        <v>0.2087</v>
       </c>
       <c r="G22">
         <v>0.219</v>
@@ -3017,8 +3140,8 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>-0.1827</v>
@@ -3142,8 +3265,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>-0.1579</v>
@@ -3267,8 +3390,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>-0.1115</v>
@@ -3392,20 +3515,23 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26">
+        <v>-5545000000</v>
       </c>
       <c r="C26">
-        <v>-246000000</v>
+        <v>797000000</v>
       </c>
       <c r="D26">
-        <v>285000000</v>
+        <v>258000000</v>
       </c>
       <c r="E26">
-        <v>1874000000</v>
+        <v>1827000000</v>
       </c>
       <c r="F26">
-        <v>1884000000</v>
+        <v>1877000000</v>
       </c>
       <c r="G26">
         <v>1486000000</v>
@@ -3514,8 +3640,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>-6099000000</v>
@@ -3639,14 +3765,14 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>-3816000000</v>
       </c>
       <c r="C28">
-        <v>-501000000</v>
+        <v>-502000000</v>
       </c>
       <c r="D28">
         <v>229000000</v>
@@ -3655,7 +3781,7 @@
         <v>806000000</v>
       </c>
       <c r="F28">
-        <v>3531000000</v>
+        <v>3532000000</v>
       </c>
       <c r="G28">
         <v>345000000</v>
@@ -3764,8 +3890,8 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="G29">
         <v>268000000</v>
@@ -3790,14 +3916,14 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>-3816000000</v>
       </c>
       <c r="C30">
-        <v>-501000000</v>
+        <v>-502000000</v>
       </c>
       <c r="D30">
         <v>229000000</v>
@@ -3806,7 +3932,7 @@
         <v>806000000</v>
       </c>
       <c r="F30">
-        <v>3531000000</v>
+        <v>3532000000</v>
       </c>
       <c r="G30">
         <v>614000000</v>
@@ -3915,14 +4041,14 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
         <v>-4.4187</v>
       </c>
       <c r="C31">
-        <v>-0.46</v>
+        <v>-0.4095</v>
       </c>
       <c r="D31">
         <v>0.33</v>
@@ -3931,7 +4057,7 @@
         <v>1.02</v>
       </c>
       <c r="F31">
-        <v>4.13</v>
+        <v>4.0795</v>
       </c>
       <c r="G31">
         <v>0.41</v>
@@ -4040,14 +4166,14 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>-4.4187</v>
       </c>
       <c r="C32">
-        <v>-0.47</v>
+        <v>-0.411</v>
       </c>
       <c r="D32">
         <v>0.33</v>
@@ -4056,7 +4182,7 @@
         <v>1.02</v>
       </c>
       <c r="F32">
-        <v>4.13</v>
+        <v>4.071</v>
       </c>
       <c r="G32">
         <v>0.42</v>
@@ -4165,8 +4291,8 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="G33">
         <v>0.3</v>
@@ -4191,8 +4317,8 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G34">
         <v>0.3</v>
@@ -4217,8 +4343,8 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
         <v>-4.4187</v>
@@ -4342,8 +4468,8 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
         <v>-4.4187</v>
@@ -4467,8 +4593,11 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37">
+        <v>863600000</v>
       </c>
       <c r="C37">
         <v>864500000</v>
@@ -4589,23 +4718,23 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>-0.1661</v>
       </c>
       <c r="C38">
-        <v>-0.0076</v>
+        <v>0.0246</v>
       </c>
       <c r="D38">
-        <v>0.008699999999999999</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="E38">
-        <v>0.0555</v>
+        <v>0.0541</v>
       </c>
       <c r="F38">
-        <v>0.0556</v>
+        <v>0.0554</v>
       </c>
       <c r="G38">
         <v>0.0434</v>
@@ -4714,8 +4843,8 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B39">
         <v>0.0148</v>
@@ -4724,16 +4853,16 @@
         <v>0.0027</v>
       </c>
       <c r="D39">
-        <v>0.0499</v>
+        <v>0.05</v>
       </c>
       <c r="E39">
-        <v>0.0322</v>
+        <v>0.0321</v>
       </c>
       <c r="F39">
         <v>0.0324</v>
       </c>
       <c r="G39">
-        <v>0.0364</v>
+        <v>0.0363</v>
       </c>
       <c r="H39">
         <v>0.0515</v>
